--- a/biology/Médecine/Hôpital_de_Pitkäniemi/Hôpital_de_Pitkäniemi.xlsx
+++ b/biology/Médecine/Hôpital_de_Pitkäniemi/Hôpital_de_Pitkäniemi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_de_Pitk%C3%A4niemi</t>
+          <t>Hôpital_de_Pitkäniemi</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'hôpital de Pitkäniemi (finnois : Pitkäniemen sairaala), est un hôpital psychiatrique situé à Nokia en Finlande
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_de_Pitk%C3%A4niemi</t>
+          <t>Hôpital_de_Pitkäniemi</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'hôpital est construit dans un parc sur la péninsule Pitkäniemi du lac Pyhäjärvi (Tampere)[1].
-L'hopital Pitkäniemi fait partie de l'hôpital universitaire de Tampere et c'est un établissement du district hospitalier de Pirkanmaa[2],[3].
-L'hopital soigne les adultes et les jeunes, tandis que les enfants sont reçus à l'hôpital central[2]. 
-L'hôpital abrite aussi l'église d'hôpital de Pitkäniemi, qui a été inaugurée le 27 octobre 1901 et le cimetière de l'hôpital[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'hôpital est construit dans un parc sur la péninsule Pitkäniemi du lac Pyhäjärvi (Tampere).
+L'hopital Pitkäniemi fait partie de l'hôpital universitaire de Tampere et c'est un établissement du district hospitalier de Pirkanmaa,.
+L'hopital soigne les adultes et les jeunes, tandis que les enfants sont reçus à l'hôpital central. 
+L'hôpital abrite aussi l'église d'hôpital de Pitkäniemi, qui a été inaugurée le 27 octobre 1901 et le cimetière de l'hôpital.
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_de_Pitk%C3%A4niemi</t>
+          <t>Hôpital_de_Pitkäniemi</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,12 +559,14 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'ensemble immobilier se compose de bâtiments en pierre achevés à la fin du XIXe siècle. 
 Le projet de construction est conçu en 1894−1895 par les architectes Sebastian Gripenberg, Magnus Schjerfbeck et Ernst Albin Kranck, qui faisaient partie de la direction des bâtiments de Finlande.
-Les experts sont Thiodolf Saelan, directeur de l'hôpital Lapinlahti, et Emil Hougberg, qui deviendra le premier médecin-chef de l'hopital de Pitkäniemi[3].
-L'hopital est classé Site culturel construit d'intérêt national en Finlande par la direction des musées de Finlande[1].
+Les experts sont Thiodolf Saelan, directeur de l'hôpital Lapinlahti, et Emil Hougberg, qui deviendra le premier médecin-chef de l'hopital de Pitkäniemi.
+L'hopital est classé Site culturel construit d'intérêt national en Finlande par la direction des musées de Finlande.
 </t>
         </is>
       </c>
